--- a/PCR/ctValues.xlsx
+++ b/PCR/ctValues.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
   <si>
     <t>S. enterica</t>
   </si>
@@ -178,11 +178,53 @@
   <si>
     <t>OriC assay</t>
   </si>
+  <si>
+    <t>Sample #1</t>
+  </si>
+  <si>
+    <t>Dilution</t>
+  </si>
+  <si>
+    <t>ug/ml (from nanodrop)</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>Salmonella spp serial dilution (ABI 7500 FAST - limit of detection)</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>gfp</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>duplicate 1</t>
+  </si>
+  <si>
+    <t>duplicate 2</t>
+  </si>
+  <si>
+    <t>total DNA (ng/ml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -446,16 +488,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -464,21 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -521,15 +539,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,6 +549,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,6 +609,592 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>S. enterica</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OriC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> assay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OriC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.7441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.891100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.405900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.134500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.957599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B047-4552-89C1-40E83029E4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OriC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$55:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.923100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.848500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.395600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.3033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.599699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B047-4552-89C1-40E83029E4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243368128"/>
+        <c:axId val="243366816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243368128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dilution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243366816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243366816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ct</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243368128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1783,7 +2419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3009,7 +3645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4234,7 +4870,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5460,7 +6096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6168,1023 +6804,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-32EB-4D74-9E38-A824FD2F9ACF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="398414440"/>
-        <c:axId val="398414112"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="398414440"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>dilution factor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398414112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="398414112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="42"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ct</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398414440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15856167416495096"/>
-          <c:y val="0.13576007861951461"/>
-          <c:w val="0.36082708518997442"/>
-          <c:h val="6.220262679761638E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200" baseline="0"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>GFP assay (Salmonella spp.)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11021450171196791"/>
-          <c:y val="0.11252179164204233"/>
-          <c:w val="0.82680298374019501"/>
-          <c:h val="0.74101353052549812"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SmartCycler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-BE99-4CB1-A968-3420C614797E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$3:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$D$3:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>24.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24.12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27.32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.51</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27.36</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.39</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27.12</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27.26</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27.7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.52</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27.37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26.88</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.26</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.22</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28.77</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.92</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE99-4CB1-A968-3420C614797E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ABI 7500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$3:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$3:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>22.188199999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.429300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.522400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.0732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.982099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.176500000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.246400000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.8154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.458600000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.211200000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.265599999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.589099999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.719899999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.861499999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.3003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.630400000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.6128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.897400000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.311399999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.436699999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.848800000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0806</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.908799999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.713699999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.7059</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.85</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.673400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.444199999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.633500000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.220099999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.1203</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.863900000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.969100000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.037600000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.427700000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.855</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23.099599999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE99-4CB1-A968-3420C614797E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7515,6 +7134,1023 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GFP assay (Salmonella spp.)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11021450171196791"/>
+          <c:y val="0.11252179164204233"/>
+          <c:w val="0.82680298374019501"/>
+          <c:h val="0.74101353052549812"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SmartCycler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-BE99-4CB1-A968-3420C614797E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.39</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE99-4CB1-A968-3420C614797E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABI 7500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>22.188199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.429300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.982099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.176500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.246400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.8154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.458600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.211200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.265599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.589099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.719899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.861499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.3003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.630400000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.6128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.897400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.311399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.436699999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.848800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.908799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.713699999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.7059</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.673400000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.444199999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.633500000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.220099999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.1203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.863900000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.969100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.037600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.427700000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.855</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.099599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE99-4CB1-A968-3420C614797E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398414440"/>
+        <c:axId val="398414112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398414440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dilution factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398414112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398414112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ct</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398414440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15856167416495096"/>
+          <c:y val="0.13576007861951461"/>
+          <c:w val="0.36082708518997442"/>
+          <c:h val="6.220262679761638E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -7976,6 +8612,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="392908024"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8067,7 +8704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8961,6 +9598,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12058,7 +12735,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12085,8 +12762,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12187,7 +12864,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12219,10 +12896,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12262,22 +12939,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12382,8 +13060,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12515,19 +13193,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12541,6 +13220,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13063,7 +13753,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB090A1A-56AF-4323-ACC7-035EF6594E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13218,7 +14452,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13297,7 +14531,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13673,159 +14907,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="43" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="43" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="43" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="27">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="16">
         <v>25.38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>28.19</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>31.64</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="21">
         <v>35.229999999999997</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="16">
         <v>24.73</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>22.39</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>23.36</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="22">
         <v>24.28</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="16">
         <v>25.2</v>
       </c>
       <c r="L6">
@@ -13837,51 +15073,51 @@
       <c r="N6">
         <v>37.203699999999998</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="16">
         <v>22.188199999999998</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>22.429300000000001</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>23.317</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="17">
         <v>23.522400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>22.58</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>26.61</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>29.64</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="23">
         <v>33.46</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>23.83</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>24.25</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>23.82</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>24.75</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>23.560199999999998</v>
       </c>
       <c r="L7">
@@ -13893,51 +15129,51 @@
       <c r="N7">
         <v>34.687899999999999</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="6">
         <v>22.0732</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="7">
         <v>22.743600000000001</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="7">
         <v>22.982099999999999</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <v>23.176500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>24.2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>27.55</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>31.32</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="23">
         <v>34.950000000000003</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>24.22</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>24.95</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>24.78</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>24.36</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>24.466000000000001</v>
       </c>
       <c r="L8">
@@ -13949,51 +15185,51 @@
       <c r="N8">
         <v>36.006799999999998</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="6">
         <v>22.246400000000001</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="7">
         <v>22.8154</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="7">
         <v>22.458600000000001</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="8">
         <v>23.211200000000002</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>23.23</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>26.17</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>30.72</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="23">
         <v>34.340000000000003</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>24.15</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>23.99</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>24.51</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>23.83</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>23.471499999999999</v>
       </c>
       <c r="L9">
@@ -14005,51 +15241,51 @@
       <c r="N9">
         <v>34.271500000000003</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>22.265599999999999</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="7">
         <v>22.589099999999998</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="7">
         <v>22.719899999999999</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <v>22.861499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>24.86</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>28.52</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>31.81</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="23">
         <v>37.29</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>24.34</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>24.12</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>24.15</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>28.22</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>25.141400000000001</v>
       </c>
       <c r="L10">
@@ -14061,51 +15297,51 @@
       <c r="N10">
         <v>36.1676</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="6">
         <v>22.3003</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="7">
         <v>22.630400000000002</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="7">
         <v>22.6128</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="8">
         <v>22.897400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>25.09</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>28.29</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>32.19</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="23">
         <v>36.17</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>29.6</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>27.32</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>28.51</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="24">
         <v>27.36</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>24.854299999999999</v>
       </c>
       <c r="L11">
@@ -14117,51 +15353,51 @@
       <c r="N11">
         <v>35.8733</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="6">
         <v>22.311399999999999</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="7">
         <v>22.436699999999998</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="7">
         <v>22.848800000000001</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="8">
         <v>23.0806</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>25.93</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>28.61</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>32.42</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="23">
         <v>36.14</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>28.45</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>27.39</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>27.59</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <v>28.09</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <v>25.498699999999999</v>
       </c>
       <c r="L12">
@@ -14173,51 +15409,51 @@
       <c r="N12">
         <v>36.460999999999999</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="6">
         <v>21.908799999999999</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="7">
         <v>22.713699999999999</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="7">
         <v>22.7059</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <v>22.85</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>26.04</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>29.29</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>32.69</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="23">
         <v>36.03</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>27.12</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>27.26</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>27.7</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <v>27.52</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <v>26.365600000000001</v>
       </c>
       <c r="L13">
@@ -14229,51 +15465,51 @@
       <c r="N13">
         <v>37.906700000000001</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="6">
         <v>22.673400000000001</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="7">
         <v>22.444199999999999</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="7">
         <v>22.633500000000002</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="8">
         <v>23.220099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>25.16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>28.2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>33.14</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="23">
         <v>36.24</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>27.37</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>26.88</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="23">
         <v>29.26</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="24">
         <v>29.22</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>25.053599999999999</v>
       </c>
       <c r="L14">
@@ -14285,469 +15521,767 @@
       <c r="N14">
         <v>36.4998</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="6">
         <v>22.1203</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="7">
         <v>22.863900000000001</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="7">
         <v>22.969100000000001</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="8">
         <v>23.037600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="29">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>28.29</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>32.32</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>35.49</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>40.25</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <v>28.75</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>28.77</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>27.92</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="11">
         <v>32.6</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <v>28.020299999999999</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>31.668600000000001</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <v>35.198900000000002</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <v>22.427700000000002</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>22.855</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>23.099599999999999</v>
       </c>
-      <c r="R15" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="R15" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="16">
         <v>30.03</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>23.19</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="16">
         <v>30.06</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="17">
         <v>33.22</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="16">
         <v>30.497599999999998</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="17">
         <v>21.962399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>0</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>22.54</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>28.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <v>22.5627</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="27">
         <v>1</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="16">
         <v>0</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>29.88</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="16">
         <v>0</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="17">
         <v>22.2911</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="28">
         <v>2</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>0</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>29.24</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>0</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <v>22.840699999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="28">
         <v>3</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>29.52</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <v>22.3521</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="28">
         <v>4</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>0</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>29.09</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="8">
         <v>21.590800000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="28">
         <v>5</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>32.950000000000003</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8">
         <v>23.630199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="28">
         <v>6</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>29.25</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>0</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <v>23.360199999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="28">
         <v>7</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6">
         <v>0</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="24">
         <v>28.51</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <v>22.745200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="28">
         <v>8</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>0</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="24">
         <v>28.62</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>0</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <v>24.181799999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="28">
         <v>9</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <v>0</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>29.8</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>0</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="8">
         <v>23.5153</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37">
+      <c r="A39" s="29">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <v>0</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="11">
         <v>29.05</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>0</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
         <v>22.589400000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="16">
         <v>30.02</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="17">
         <v>28.6</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="16">
         <v>29.585100000000001</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="17">
         <v>23.080200000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="9">
         <v>0</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="11">
         <v>28.34</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>0</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="11">
         <v>24.030799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2.9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="D52" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="46"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="D53" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="44">
+        <f>$C$50/B55*1000</f>
+        <v>2900</v>
+      </c>
+      <c r="D55">
+        <v>24.7441</v>
+      </c>
+      <c r="E55">
+        <v>24.617599999999999</v>
+      </c>
+      <c r="F55">
+        <v>24.923100000000002</v>
+      </c>
+      <c r="G55">
+        <v>25.152100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" s="44">
+        <f t="shared" ref="C56:C62" si="0">$C$50/B56*1000</f>
+        <v>290</v>
+      </c>
+      <c r="D56">
+        <v>28.891100000000002</v>
+      </c>
+      <c r="E56">
+        <v>26.243400000000001</v>
+      </c>
+      <c r="F56">
+        <v>28.848500000000001</v>
+      </c>
+      <c r="G56">
+        <v>26.1645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" s="44">
+        <f t="shared" si="0"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="D57">
+        <v>32.405900000000003</v>
+      </c>
+      <c r="E57">
+        <v>25.9435</v>
+      </c>
+      <c r="F57">
+        <v>32.395600000000002</v>
+      </c>
+      <c r="G57">
+        <v>26.396599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="44">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="D58">
+        <v>36.134500000000003</v>
+      </c>
+      <c r="E58">
+        <v>26.288799999999998</v>
+      </c>
+      <c r="F58">
+        <v>35.3033</v>
+      </c>
+      <c r="G58">
+        <v>26.287299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>10000</v>
+      </c>
+      <c r="C59" s="44">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D59">
+        <v>40.061</v>
+      </c>
+      <c r="E59">
+        <v>26.1724</v>
+      </c>
+      <c r="F59">
+        <v>37.599699999999999</v>
+      </c>
+      <c r="G59">
+        <v>26.565300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>100000</v>
+      </c>
+      <c r="C60" s="44">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D60">
+        <v>41.957599999999999</v>
+      </c>
+      <c r="E60">
+        <v>26.291799999999999</v>
+      </c>
+      <c r="G60">
+        <v>26.259799999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1000000</v>
+      </c>
+      <c r="C61" s="44">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E61">
+        <v>26.139600000000002</v>
+      </c>
+      <c r="G61">
+        <v>26.235700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>10000000</v>
+      </c>
+      <c r="C62" s="44">
+        <f t="shared" si="0"/>
+        <v>2.9E-4</v>
+      </c>
+      <c r="E62">
+        <v>25.427600000000002</v>
+      </c>
+      <c r="G62">
+        <v>25.726800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="C63" s="44"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>30.0916</v>
+      </c>
+      <c r="E65">
+        <v>25.388000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <v>25.4436</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
+  <mergeCells count="17">
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14755,13 +16289,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="49"/>
+    <col min="1" max="1" width="9.140625" style="38"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
@@ -14774,365 +16308,365 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>25.38</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>22.58</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>24.2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>23.23</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>24.86</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>25.09</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>25.93</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>26.04</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>25.16</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>28.29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="37">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>28.19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>26.61</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>27.55</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>26.17</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>28.52</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>28.29</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>28.61</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>29.29</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>28.2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>32.32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="37">
         <v>100</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>31.64</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>29.64</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>31.32</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>30.72</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>31.81</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>32.19</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>32.42</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>32.69</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>33.14</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>35.49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="37">
         <v>1000</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="23">
         <v>35.229999999999997</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="23">
         <v>33.46</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="23">
         <v>34.950000000000003</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="23">
         <v>34.340000000000003</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="23">
         <v>37.29</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="23">
         <v>36.17</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="23">
         <v>36.14</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="23">
         <v>36.03</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="23">
         <v>36.24</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>40.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>25.2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>23.560199999999998</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>24.466000000000001</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>23.471499999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>25.141400000000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>24.854299999999999</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>25.498699999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>26.365600000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>25.053599999999999</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>28.020299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="37">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>29.101800000000001</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>27.388000000000002</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>28.341000000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>27.211300000000001</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>28.730399999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>28.370999999999999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>29.154399999999999</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>29.8812</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <v>29.052700000000002</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <v>31.668600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="37">
         <v>100</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>32.803699999999999</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>30.699000000000002</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>31.775700000000001</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>30.631</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>32.097099999999998</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>32.112400000000001</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>32.643700000000003</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>33.627499999999998</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <v>32.612200000000001</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <v>35.198900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="37">
         <v>1000</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>37.203699999999998</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>34.687899999999999</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>36.006799999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>34.271500000000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>36.1676</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>35.8733</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>36.460999999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>37.906700000000001</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>36.4998</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15142,493 +16676,493 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="37">
         <v>1</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>24.73</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>23.83</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>24.22</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>24.15</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>24.34</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>29.6</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>28.45</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>27.12</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <v>27.37</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <v>28.75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="37">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>22.39</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>24.25</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>24.95</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>23.99</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>24.12</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>27.32</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>27.39</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>27.26</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <v>26.88</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <v>28.77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="37">
         <v>100</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>23.36</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>23.82</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>24.78</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>24.51</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>24.15</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>28.51</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>27.59</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <v>27.7</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="23">
         <v>29.26</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="7">
         <v>27.92</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="37">
         <v>1000</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>24.28</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>24.75</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="23">
         <v>24.36</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="23">
         <v>23.83</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <v>28.22</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <v>27.36</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="23">
         <v>28.09</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="23">
         <v>27.52</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="23">
         <v>29.22</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="7">
         <v>32.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>22.188199999999998</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>22.0732</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>22.246400000000001</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <v>22.265599999999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>22.3003</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <v>22.311399999999999</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <v>21.908799999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <v>22.673400000000001</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="7">
         <v>22.1203</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="7">
         <v>22.427700000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="37">
         <v>10</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>22.429300000000001</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>22.743600000000001</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>22.8154</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>22.589099999999998</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>22.630400000000002</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="7">
         <v>22.436699999999998</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>22.713699999999999</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>22.444199999999999</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="7">
         <v>22.863900000000001</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <v>22.855</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="37">
         <v>100</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>23.317</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>22.982099999999999</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>22.458600000000001</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="7">
         <v>22.719899999999999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>22.6128</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <v>22.848800000000001</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="7">
         <v>22.7059</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <v>22.633500000000002</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="7">
         <v>22.969100000000001</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="7">
         <v>23.099599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="37">
         <v>1000</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>23.522400000000001</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>23.176500000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>23.211200000000002</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="7">
         <v>22.861499999999999</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <v>22.897400000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <v>23.0806</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="7">
         <v>22.85</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="7">
         <v>23.220099999999999</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="7">
         <v>23.037600000000001</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
+      <c r="B63" s="23"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
+      <c r="B64" s="23"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+      <c r="B68" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15640,721 +17174,721 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>25.38</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>25.2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>24.73</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>22.188199999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="39">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>28.19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29.101800000000001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>22.39</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>22.429300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="39">
         <v>100</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>31.64</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>32.803699999999999</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>23.36</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>23.317</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="39">
         <v>1000</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="23">
         <v>35.229999999999997</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>37.203699999999998</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="23">
         <v>24.28</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>23.522400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>22.58</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>23.560199999999998</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>23.83</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>22.0732</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="39">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>26.61</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>27.388000000000002</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>24.25</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>22.743600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="39">
         <v>100</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>29.64</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>30.699000000000002</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>23.82</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>22.982099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="39">
         <v>1000</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="23">
         <v>33.46</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>34.687899999999999</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <v>24.75</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>23.176500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="39">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>24.2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>24.466000000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>24.22</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>22.246400000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>27.55</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>28.341000000000001</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>24.95</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>22.8154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="39">
         <v>100</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>31.32</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>31.775700000000001</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>24.78</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>22.458600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="39">
         <v>1000</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="23">
         <v>34.950000000000003</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>36.006799999999998</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="23">
         <v>24.36</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>23.211200000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>23.23</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>23.471499999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>24.15</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>22.265599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="39">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>26.17</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>27.211300000000001</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>23.99</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>22.589099999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="39">
         <v>100</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>30.72</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>30.631</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>24.51</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>22.719899999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="39">
         <v>1000</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="23">
         <v>34.340000000000003</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>34.271500000000003</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="23">
         <v>23.83</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>22.861499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="39">
         <v>1</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>24.86</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>25.141400000000001</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>24.34</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>22.3003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="39">
         <v>10</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>28.52</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>28.730399999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>24.12</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>22.630400000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="39">
         <v>100</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>31.81</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>32.097099999999998</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>24.15</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <v>22.6128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="39">
         <v>1000</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="23">
         <v>37.29</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>36.1676</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="23">
         <v>28.22</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <v>22.897400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="39">
         <v>1</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>25.09</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>24.854299999999999</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>29.6</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <v>22.311399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="39">
         <v>10</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>28.29</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>28.370999999999999</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>27.32</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>22.436699999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="39">
         <v>100</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>32.19</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>32.112400000000001</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>28.51</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="7">
         <v>22.848800000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="39">
         <v>1000</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="23">
         <v>36.17</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>35.8733</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="23">
         <v>27.36</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="7">
         <v>23.0806</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="39">
         <v>1</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>25.93</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>25.498699999999999</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>28.45</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="7">
         <v>21.908799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="39">
         <v>10</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>28.61</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>29.154399999999999</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <v>27.39</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="7">
         <v>22.713699999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="A29" s="39">
         <v>100</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>32.42</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>32.643700000000003</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <v>27.59</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="7">
         <v>22.7059</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="39">
         <v>1000</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="23">
         <v>36.14</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>36.460999999999999</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="23">
         <v>28.09</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="7">
         <v>22.85</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="39">
         <v>1</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>26.04</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>26.365600000000001</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>27.12</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="7">
         <v>22.673400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
+      <c r="A32" s="39">
         <v>10</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>29.29</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>29.8812</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <v>27.26</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="7">
         <v>22.444199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50">
+      <c r="A33" s="39">
         <v>100</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>32.69</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>33.627499999999998</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="7">
         <v>27.7</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="7">
         <v>22.633500000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
+      <c r="A34" s="39">
         <v>1000</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="23">
         <v>36.03</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>37.906700000000001</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="23">
         <v>27.52</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="7">
         <v>23.220099999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
+      <c r="A35" s="39">
         <v>1</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>25.16</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>25.053599999999999</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="7">
         <v>27.37</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="7">
         <v>22.1203</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="39">
         <v>10</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>28.2</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>29.052700000000002</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="7">
         <v>26.88</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <v>22.863900000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="50">
+      <c r="A37" s="39">
         <v>100</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="7">
         <v>33.14</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>32.612200000000001</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="23">
         <v>29.26</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="7">
         <v>22.969100000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="50">
+      <c r="A38" s="39">
         <v>1000</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="23">
         <v>36.24</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>36.4998</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="23">
         <v>29.22</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="7">
         <v>23.037600000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
+      <c r="A39" s="39">
         <v>1</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="7">
         <v>28.29</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>28.020299999999999</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="7">
         <v>28.75</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="7">
         <v>22.427700000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
+      <c r="A40" s="39">
         <v>10</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>32.32</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>31.668600000000001</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="7">
         <v>28.77</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="7">
         <v>22.855</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
+      <c r="A41" s="39">
         <v>100</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="7">
         <v>35.49</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>35.198900000000002</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="7">
         <v>27.92</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="7">
         <v>23.099599999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
+      <c r="A42" s="39">
         <v>1000</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="7">
         <v>40.25</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="7">
         <v>32.6</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16387,105 +17921,105 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="25">
         <v>29.88</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>29.24</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>29.52</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>29.09</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>32.950000000000003</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>29.25</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="24">
         <v>28.51</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="24">
         <v>28.62</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>29.8</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="25">
         <v>29.05</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>22.2911</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>22.840699999999998</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>22.3521</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>21.590800000000002</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>23.630199999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>23.360199999999999</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>22.745200000000001</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>24.181799999999999</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>23.5153</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>22.589400000000001</v>
       </c>
     </row>
@@ -16495,105 +18029,105 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="25">
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0</v>
       </c>
     </row>
